--- a/testData/ExelenterEmployeeList.xlsx
+++ b/testData/ExelenterEmployeeList.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Demir\Desktop\TestNG\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF5F1F-4FF6-4CCD-8238-C8A134488EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC03C9B-B06D-465E-9604-4AD64D8D0281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="15375" windowHeight="11520" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="15375" windowHeight="11520" activeTab="1" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>William</t>
   </si>
@@ -73,6 +74,36 @@
   </si>
   <si>
     <t>tylernguyen50</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>invalidPass</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>admi123</t>
+  </si>
+  <si>
+    <t>Exelent2022Sdet!</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Username cannot be empty</t>
   </si>
 </sst>
 </file>
@@ -453,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173CC9CE-BE54-4A7D-8B5E-2A710E116FAF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -535,4 +566,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E1F887-3A72-451D-9AAD-2668EFF8E72D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>